--- a/biology/Botanique/Goodenia_hederacea/Goodenia_hederacea.xlsx
+++ b/biology/Botanique/Goodenia_hederacea/Goodenia_hederacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodenia hederacea est une espèce d'angiospermes originaire d'Australie.
-Elle peut être rampante ou érigée atteignant jusqu'à 80 cm de hauteur avec des tiges partant de la base[1]. Les feuilles font de 10 à 120 mm de long et de 3 à 25 mm de large avec une face supérieure bien verte et une surface inférieure qui peut être glabre ou tomenteuse. Les fleurs jaunes font de 8 à 15 mm de long et apparaissent entre août et avril dans l'aire de répartition naturelle de l'espèce[1].
-L'espèce est présente dans les bois, forêts et prairies alpines dans les collines et les zones côtières du Queensland, de la Nouvelle-Galles du Sud et du Victoria[1].
-L'espèce a été décrite par le botaniste anglais James Smith en 1794 dans les Transactions de la Société linnéenne de Londres[2]
+Elle peut être rampante ou érigée atteignant jusqu'à 80 cm de hauteur avec des tiges partant de la base. Les feuilles font de 10 à 120 mm de long et de 3 à 25 mm de large avec une face supérieure bien verte et une surface inférieure qui peut être glabre ou tomenteuse. Les fleurs jaunes font de 8 à 15 mm de long et apparaissent entre août et avril dans l'aire de répartition naturelle de l'espèce.
+L'espèce est présente dans les bois, forêts et prairies alpines dans les collines et les zones côtières du Queensland, de la Nouvelle-Galles du Sud et du Victoria.
+L'espèce a été décrite par le botaniste anglais James Smith en 1794 dans les Transactions de la Société linnéenne de Londres
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Sous-espèces[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodenia hederacea subsp. alpestris (K.Krause) Carolin
 Goodenia hederacea Sm.  subsp. hederacea </t>
